--- a/pages/calendar.xlsx
+++ b/pages/calendar.xlsx
@@ -32,18 +32,9 @@
     <t>day</t>
   </si>
   <si>
-    <t>topic</t>
-  </si>
-  <si>
     <t>Introduction to reproducible research</t>
   </si>
   <si>
-    <t>topic_link</t>
-  </si>
-  <si>
-    <t>hw_link</t>
-  </si>
-  <si>
     <t>Creating a dynamic report</t>
   </si>
   <si>
@@ -87,6 +78,15 @@
   </si>
   <si>
     <t>[hw02](linkto)</t>
+  </si>
+  <si>
+    <t>assignments</t>
+  </si>
+  <si>
+    <t>lessons</t>
+  </si>
+  <si>
+    <t>topics</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F11"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,13 +433,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -467,10 +467,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -481,10 +481,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -495,10 +495,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -526,10 +526,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -540,7 +540,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -551,7 +551,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/pages/calendar.xlsx
+++ b/pages/calendar.xlsx
@@ -80,13 +80,13 @@
     <t>[hw02](linkto)</t>
   </si>
   <si>
-    <t>assignments</t>
-  </si>
-  <si>
     <t>lessons</t>
   </si>
   <si>
     <t>topics</t>
+  </si>
+  <si>
+    <t>assign</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,13 +433,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">

--- a/pages/calendar.xlsx
+++ b/pages/calendar.xlsx
@@ -24,12 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>week</t>
-  </si>
-  <si>
-    <t>day</t>
   </si>
   <si>
     <t>Introduction to reproducible research</t>
@@ -410,148 +407,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="49.140625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="3" width="17.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.140625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/pages/calendar.xlsx
+++ b/pages/calendar.xlsx
@@ -410,7 +410,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,9 +461,6 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
